--- a/INWARD_DTCHO_data_test.xlsx
+++ b/INWARD_DTCHO_data_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\AutoInward\INWARD AUTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\AutoInward\Inward-Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405684EE-F35F-4700-AE9F-B5C7841ADDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C3B1AB-B54D-450E-804F-4C04A958A92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33975" yWindow="2460" windowWidth="17280" windowHeight="8970" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUOC1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Nghiệp vụ của quy trình</t>
   </si>
   <si>
-    <t>dung.thm</t>
-  </si>
-  <si>
     <t>nhat.ta</t>
   </si>
   <si>
@@ -79,13 +76,16 @@
   </si>
   <si>
     <t>chon_gddn</t>
-  </si>
-  <si>
-    <t>MT103</t>
   </si>
   <si>
     <t>MT103 tương đương  luồng DTC từ DVKD - GDDN = 
 &lt;&gt;TSHT tương đương  luồng DTC từ DVKD - GDDN = MT103 - Mã NV &lt;&gt; TS/HT và luồng DTC từ DVKD - GDDN &lt;&gt; MT103</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>duyen.lm</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822D6694-2FF2-4123-B381-4F41E5F84605}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -594,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/INWARD_DTCHO_data_test.xlsx
+++ b/INWARD_DTCHO_data_test.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\AutoInward\Inward-Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C3B1AB-B54D-450E-804F-4C04A958A92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B021F270-9D23-49A8-8FCD-C2E88C5ED01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUOC1" sheetId="1" r:id="rId1"/>
     <sheet name="BUOC2" sheetId="2" r:id="rId2"/>
     <sheet name="BUOC3" sheetId="3" r:id="rId3"/>
-    <sheet name="Mô tả biến" sheetId="8" r:id="rId4"/>
+    <sheet name="BUOC4" sheetId="9" r:id="rId4"/>
+    <sheet name="BUOC5" sheetId="10" r:id="rId5"/>
+    <sheet name="BUOC6" sheetId="11" r:id="rId6"/>
+    <sheet name="Mô tả biến" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>user_buoc1</t>
   </si>
@@ -63,29 +66,80 @@
     <t>BUOC1</t>
   </si>
   <si>
-    <t>chon_nghiepvu</t>
-  </si>
-  <si>
-    <t>Nghiệp vụ của quy trình</t>
-  </si>
-  <si>
-    <t>nhat.ta</t>
-  </si>
-  <si>
-    <t>vy.lpn</t>
-  </si>
-  <si>
     <t>chon_gddn</t>
   </si>
   <si>
-    <t>MT103 tương đương  luồng DTC từ DVKD - GDDN = 
-&lt;&gt;TSHT tương đương  luồng DTC từ DVKD - GDDN = MT103 - Mã NV &lt;&gt; TS/HT và luồng DTC từ DVKD - GDDN &lt;&gt; MT103</t>
-  </si>
-  <si>
     <t>BC</t>
   </si>
   <si>
     <t>duyen.lm</t>
+  </si>
+  <si>
+    <t>user_buoc4</t>
+  </si>
+  <si>
+    <t>pass_buoc4</t>
+  </si>
+  <si>
+    <t>user_buoc5</t>
+  </si>
+  <si>
+    <t>pass_buoc5</t>
+  </si>
+  <si>
+    <t>user_buoc6</t>
+  </si>
+  <si>
+    <t>pass_buoc6</t>
+  </si>
+  <si>
+    <t>khuong.hdd</t>
+  </si>
+  <si>
+    <t>thuong.lbn</t>
+  </si>
+  <si>
+    <t>1 tương đương ticked Tra soát/Hoàn trả/Cả Tra soát và Hoàn trả
+0 tương đương untick Tra soát/Hoàn trả/Cả Tra soát và Hoàn trả</t>
+  </si>
+  <si>
+    <t>BUOC5</t>
+  </si>
+  <si>
+    <t>Giao dịch đề nghị của quy trình của quy trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC tương đương  Giao dịch đề nghị là Nhận và chi trả tiền đến từ nước ngoài
+</t>
+  </si>
+  <si>
+    <t>tick_TSHT</t>
+  </si>
+  <si>
+    <t>luan.ttx</t>
+  </si>
+  <si>
+    <t>ketthucb5</t>
+  </si>
+  <si>
+    <t>huong.ttm</t>
+  </si>
+  <si>
+    <t>tuyen.lvk</t>
+  </si>
+  <si>
+    <t>ketthucb6</t>
+  </si>
+  <si>
+    <t>1 tương đương kết thúc hồ sơ tại bước 5
+0 tương đương chuyển đến bước phê duyệt hồ sơ</t>
+  </si>
+  <si>
+    <t>1 tương đương kết thúc hồ sơ tại bước 6
+0 tương đương không kết thúc hồ sơ</t>
+  </si>
+  <si>
+    <t>PHIHO</t>
   </si>
 </sst>
 </file>
@@ -449,38 +503,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>123456</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -491,13 +601,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1F7760-DC8D-47C9-B849-F4B631651965}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -509,9 +622,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
         <v>123456</v>
       </c>
     </row>
@@ -522,15 +675,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7AE523-1A1C-41F3-BE1E-0E595E179686}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -543,9 +696,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
         <v>123456</v>
       </c>
     </row>
@@ -555,11 +748,287 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938309BC-42BC-44AB-AFC8-AB0E582AAC4F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED197456-CE54-4DDA-8A56-2F4EC76449A0}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>123456</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C499AA06-4419-483A-AF3D-EDE80063B79F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>123456</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822D6694-2FF2-4123-B381-4F41E5F84605}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -591,10 +1060,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -633,23 +1102,39 @@
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
